--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\ctrl-settings\GDPGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\TN\ctrl-settings\GDPGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D3574-5E64-4A67-86CB-F89302CF3A32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2034141-077E-40E8-A0C8-C1DC868429A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13950" yWindow="825" windowWidth="14490" windowHeight="16395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="765" windowWidth="26355" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>About</t>
   </si>
@@ -192,7 +192,10 @@
     <t>SARS-CoV-2 pandemic.  It uses the latest data available as of November 10,</t>
   </si>
   <si>
-    <t>March STEO</t>
+    <t>JULY STEO</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
   </si>
 </sst>
 </file>
@@ -597,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,8 +613,11 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
       <c r="C1" s="23">
-        <v>44314</v>
+        <v>44384</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -848,7 +854,9 @@
       <c r="D2">
         <v>2021</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="17">
+        <v>2022</v>
+      </c>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
@@ -860,12 +868,14 @@
         <v>51</v>
       </c>
       <c r="C3" s="20">
-        <v>18423</v>
+        <v>18426</v>
       </c>
       <c r="D3" s="20">
-        <v>19444</v>
-      </c>
-      <c r="E3" s="11"/>
+        <v>19784</v>
+      </c>
+      <c r="E3" s="11">
+        <v>20767</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
@@ -961,11 +971,11 @@
       </c>
       <c r="C10" s="5">
         <f>(C4-C3)/C3</f>
-        <v>-6.5135971340172616E-4</v>
+        <v>-8.1406707912732006E-4</v>
       </c>
       <c r="D10" s="5">
         <f>(D4-D3)/D3</f>
-        <v>-1.7794692450113146E-2</v>
+        <v>-3.4674484431864133E-2</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -1017,7 +1027,7 @@
       </c>
       <c r="B14" s="12">
         <f>C3/B4-1</f>
-        <v>-3.5040854808296662E-2</v>
+        <v>-3.4883720930232509E-2</v>
       </c>
       <c r="C14" s="15"/>
     </row>
@@ -1034,8 +1044,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1067,7 @@
       </c>
       <c r="B2" s="22">
         <f>Data!B14</f>
-        <v>-3.5040854808296662E-2</v>
+        <v>-3.4883720930232509E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1082,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\TN\ctrl-settings\GDPGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\ctrl-settings\GDPGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2034141-077E-40E8-A0C8-C1DC868429A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD036DD7-F565-47C7-B2F4-2F1BFB96F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="765" windowWidth="26355" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>About</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>JULY STEO</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
   </si>
 </sst>
 </file>
@@ -613,9 +610,6 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
       <c r="C1" s="23">
         <v>44384</v>
       </c>

--- a/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
+++ b/InputData/ctrl-settings/GDPGR/GDP Growth Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\ctrl-settings\GDPGR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\TN\ctrl-settings\GDPGR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD036DD7-F565-47C7-B2F4-2F1BFB96F677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B15CF0D8-D0C1-45D5-9719-CA0991FD0D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="765" windowWidth="26355" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="1260" windowWidth="12750" windowHeight="12675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>About</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>JULY STEO</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -294,19 +297,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,8 +606,11 @@
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="23">
-        <v>44384</v>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="18">
+        <v>44824</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -633,7 +632,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -812,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -825,18 +824,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -848,33 +847,28 @@
       <c r="D2">
         <v>2021</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="8">
         <v>2022</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>18426</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="15">
         <v>19784</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>20767</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -889,12 +883,6 @@
       <c r="D4">
         <v>19098</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -909,55 +897,31 @@
       <c r="D5">
         <v>19790</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B6">
         <f>B4</f>
         <v>19092</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <f>C5*($B$4/$B$5)</f>
         <v>19472.478288231592</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="15">
         <f>D5*($B$4/$B$5)</f>
         <v>19814.908747640027</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="12"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -971,20 +935,12 @@
         <f>(D4-D3)/D3</f>
         <v>-3.4674484431864133E-2</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -993,37 +949,31 @@
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>C6/B6-1</f>
         <v>1.9928676316341543E-2</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>C3/B4-1</f>
         <v>-3.4883720930232509E-2</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,8 +988,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,9 +1009,9 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22">
-        <f>Data!B14</f>
-        <v>-3.4883720930232509E-2</v>
+      <c r="B2" s="17">
+        <f>'GDPGR-bau'!B2</f>
+        <v>1.9928676316341543E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1047,7 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="17">
         <f>Data!B13</f>
         <v>1.9928676316341543E-2</v>
       </c>
